--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -94605,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -94885,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94939,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94993,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95047,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95101,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1690"/>
+  <dimension ref="A1:R1691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95113,6 +95113,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>446.8500061035156</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>455</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>444.2999877929688</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>446.3500061035156</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>446.3500061035156</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>65073</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1691"/>
+  <dimension ref="A1:R1692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94653,7 +94653,7 @@
         <v>23</v>
       </c>
       <c r="O1682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1682" t="n">
         <v>0</v>
@@ -95165,7 +95165,63 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>447</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>450.6499938964844</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>438.3999938964844</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>445.25</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>445.25</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>75012</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1692"/>
+  <dimension ref="A1:R1699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95221,7 +95221,387 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>445.25</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>439.1499938964844</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>442.0499877929688</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>442.0499877929688</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>64769</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>440.7999877929688</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>445.3999938964844</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>431.0499877929688</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>435.1000061035156</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>435.1000061035156</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>61858</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>435.1000061035156</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>443.7999877929688</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>429.8999938964844</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>438.8500061035156</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>438.8500061035156</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>38504</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>447.0499877929688</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>438.8999938964844</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>442.4500122070312</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>442.4500122070312</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>49226</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>442</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>453.9500122070312</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>435.7000122070312</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>448.25</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>448.25</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>63839</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>451</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>454</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>447.4500122070312</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>451.2000122070312</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>451.2000122070312</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>48721</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>451.1499938964844</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>459</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>450.8999938964844</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>450.8999938964844</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>113427</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -95277,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95331,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95385,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95439,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95493,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95547,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95601,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1699"/>
+  <dimension ref="A1:R1704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95617,6 +95617,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>453.2000122070312</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>457.7000122070312</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>447</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>453.6000061035156</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>453.6000061035156</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>34569</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>458</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>458</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>450.0499877929688</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>453.1000061035156</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>453.1000061035156</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>40560</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>455.3999938964844</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>458.2999877929688</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>447.25</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>449.7999877929688</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>449.7999877929688</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>31511</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>448</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>459.8999938964844</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>448</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>457.8999938964844</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>457.8999938964844</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>46991</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>455.6000061035156</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>459.6000061035156</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>449.8500061035156</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>451.2000122070312</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>451.2000122070312</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>62312</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1704"/>
+  <dimension ref="A1:R1713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95669,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95723,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95777,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95823,7 +95829,7 @@
         <v>27</v>
       </c>
       <c r="O1703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1703" t="n">
         <v>0</v>
@@ -95831,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95885,7 +95893,495 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>452</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>455</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>443</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>447.1499938964844</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>447.1499938964844</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>31854</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>453.0499877929688</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>455.3999938964844</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>435.5</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>439.2999877929688</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>439.2999877929688</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>78976</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>440.1000061035156</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>448.5499877929688</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>430</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>79892</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>433.7999877929688</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>455.3500061035156</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>420</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>121233</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>455</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>455.8500061035156</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>442.3500061035156</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>446.75</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>446.75</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>39945</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>448.8999938964844</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>448.8999938964844</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>435</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>442.0499877929688</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>442.0499877929688</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>87296</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>446.9500122070312</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>446.9500122070312</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>439.4500122070312</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>441.2999877929688</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>441.2999877929688</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>78341</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>443.5499877929688</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>446.6000061035156</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>435</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>439.3500061035156</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>439.3500061035156</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>98109</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>442</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>435.8500061035156</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>440.2000122070312</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>440.2000122070312</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>56876</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1713"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95949,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -96003,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96057,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96111,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96165,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96219,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96273,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96327,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96381,7 +96397,549 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>439.9500122070312</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>426.2000122070312</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>430.6000061035156</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>430.6000061035156</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>75078</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>432</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>439.6499938964844</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>422</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>431.3500061035156</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>431.3500061035156</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>102169</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>433.7000122070312</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>440</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>430.5499877929688</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>437.75</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>437.75</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>45548</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>431</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>437.7000122070312</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>424</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>425.75</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>425.75</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>57559</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>427.8999938964844</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>427.8999938964844</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>418.1000061035156</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>419.75</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>419.75</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>94099</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>423.8999938964844</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>425.75</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>418.25</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>421.25</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>421.25</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>119103</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>432.2000122070312</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>422.2999877929688</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>428.8999938964844</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>428.8999938964844</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>66575</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>433.2000122070312</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>441.7000122070312</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>409.9500122070312</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>426.7000122070312</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>426.7000122070312</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>374452</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>433.0499877929688</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>432.6499938964844</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>441.75</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>441.75</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>373574</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>454.7999877929688</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>450.9500122070312</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>450.9500122070312</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>162382</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1723"/>
+  <dimension ref="A1:R1728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96453,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96507,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96561,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96615,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96669,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96723,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96777,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96831,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96885,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96939,7 +96957,279 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>444</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>444</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>426</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>434.8500061035156</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>434.8500061035156</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>117202</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>426</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>451.7999877929688</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>426</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>434.3500061035156</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>434.3500061035156</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>140040</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>433</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>443.3999938964844</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>428.1499938964844</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>438.25</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>438.25</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>72946</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>433.7999877929688</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>441.2000122070312</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>415.1000061035156</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>424.7000122070312</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>424.7000122070312</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>69944</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>428</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>439</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>422.75</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>427.7000122070312</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>427.7000122070312</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>75298</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1728"/>
+  <dimension ref="A1:R1732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96837,7 +96837,7 @@
         <v>31</v>
       </c>
       <c r="O1721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1721" t="n">
         <v>0</v>
@@ -96893,7 +96893,7 @@
         <v>31</v>
       </c>
       <c r="O1722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1722" t="n">
         <v>0</v>
@@ -97013,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97067,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97121,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97175,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97229,7 +97237,225 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>427.7000122070312</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>429.8500061035156</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>420</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>422.6499938964844</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>422.6499938964844</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>110194</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>425</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>426.2999877929688</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>410</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>418.4500122070312</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>418.4500122070312</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>190315</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>420.5499877929688</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>420.7000122070312</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>412.6499938964844</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>417.3999938964844</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>417.3999938964844</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>36747</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>420.7000122070312</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>420.7000122070312</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>412.8999938964844</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>41305</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1732"/>
+  <dimension ref="A1:R1737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97293,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97347,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97401,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97455,7 +97461,279 @@
       <c r="Q1732" t="n">
         <v>1</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>418.25</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>415.5499877929688</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>417.6000061035156</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>417.6000061035156</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>49722</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>417</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>424.3999938964844</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>417</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>420.8999938964844</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>420.8999938964844</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>74134</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>417.5</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>417.5</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>420.6499938964844</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>420.6499938964844</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>44608</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>422.7999877929688</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>428.8999938964844</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>419.7999877929688</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>420.2999877929688</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>420.2999877929688</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>59482</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>418.75</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>105559</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1737"/>
+  <dimension ref="A1:R1742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97517,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>2</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97571,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97625,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97679,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97733,7 +97741,279 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>423.5</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>427.8999938964844</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>419.0499877929688</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>421</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>421</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>91552</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>421</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>424.7000122070312</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>413.25</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>414.7999877929688</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>414.7999877929688</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>137031</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>414.7999877929688</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>416.8999938964844</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>405.0499877929688</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>407.1499938964844</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>407.1499938964844</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>176942</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>408.8999938964844</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>411.4500122070312</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>403</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>404.6000061035156</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>404.6000061035156</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>115057</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>406.6000061035156</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>410</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>402</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>404.9500122070312</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>404.9500122070312</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>424937</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1742"/>
+  <dimension ref="A1:R1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97797,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97851,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97905,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97959,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98013,7 +98021,279 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>408.6499938964844</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>414.3999938964844</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>407.0499877929688</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>410.1000061035156</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>410.1000061035156</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>120157</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>414</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>414</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>409.2999877929688</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>410.1000061035156</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>410.1000061035156</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>42632</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>410.4500122070312</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>411</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>405.2999877929688</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>410.0499877929688</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>410.0499877929688</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>82133</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>408.8500061035156</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>412</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>398.25</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>405.5499877929688</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>405.5499877929688</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>93330</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>405.1499938964844</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>414.8999938964844</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>405.1499938964844</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>412.2999877929688</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>412.2999877929688</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>156280</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1747"/>
+  <dimension ref="A1:R1752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98077,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98131,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98185,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98239,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98293,7 +98301,279 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>412.5</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>415.3999938964844</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>404</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>406.5499877929688</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>406.5499877929688</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>40398</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>405</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>412.2999877929688</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>404.7999877929688</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>96013</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>407</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>411.6499938964844</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>405</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>405.9500122070312</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>405.9500122070312</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>34200</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>404.0499877929688</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>410.2000122070312</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>404.0499877929688</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>408.7999877929688</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>408.7999877929688</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>58741</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>409.25</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>416</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>408.0499877929688</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>412.2999877929688</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>412.2999877929688</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>45445</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1752"/>
+  <dimension ref="A1:R1757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98237,7 +98237,7 @@
         <v>36</v>
       </c>
       <c r="O1746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1746" t="n">
         <v>0</v>
@@ -98357,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98411,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98465,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98519,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98573,7 +98581,279 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>420</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>410</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>417.2999877929688</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>417.2999877929688</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>61218</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>417.8999938964844</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>422.5499877929688</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>421.3999938964844</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>421.3999938964844</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>62029</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>421.3999938964844</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>425</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>418.6000061035156</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>418.6000061035156</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>61832</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>418.5</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>424.2000122070312</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>408</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>411.7000122070312</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>411.7000122070312</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>55828</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>415</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>417.7000122070312</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>411.1000061035156</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>414.5</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>414.5</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>26972</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1757"/>
+  <dimension ref="A1:R1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="R173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="R185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
       <c r="R275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -17886,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -18950,7 +18950,7 @@
         <v>1</v>
       </c>
       <c r="R330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -21582,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="R377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -24774,7 +24774,7 @@
         <v>1</v>
       </c>
       <c r="R434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -25558,7 +25558,7 @@
         <v>2</v>
       </c>
       <c r="R448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
@@ -27966,7 +27966,7 @@
         <v>0</v>
       </c>
       <c r="R491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -29310,7 +29310,7 @@
         <v>0</v>
       </c>
       <c r="R515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -31438,7 +31438,7 @@
         <v>0</v>
       </c>
       <c r="R553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -32894,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="R579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -35246,7 +35246,7 @@
         <v>1</v>
       </c>
       <c r="R621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -43646,7 +43646,7 @@
         <v>1</v>
       </c>
       <c r="R771" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="R796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -49022,7 +49022,7 @@
         <v>1</v>
       </c>
       <c r="R867" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868">
@@ -52438,7 +52438,7 @@
         <v>1</v>
       </c>
       <c r="R928" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929">
@@ -53614,7 +53614,7 @@
         <v>0</v>
       </c>
       <c r="R949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950">
@@ -55854,7 +55854,7 @@
         <v>0</v>
       </c>
       <c r="R989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990">
@@ -62518,7 +62518,7 @@
         <v>0</v>
       </c>
       <c r="R1108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109">
@@ -63358,7 +63358,7 @@
         <v>2</v>
       </c>
       <c r="R1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -66214,7 +66214,7 @@
         <v>2</v>
       </c>
       <c r="R1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175">
@@ -67334,7 +67334,7 @@
         <v>1</v>
       </c>
       <c r="R1194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195">
@@ -68118,7 +68118,7 @@
         <v>1</v>
       </c>
       <c r="R1208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209">
@@ -69462,7 +69462,7 @@
         <v>0</v>
       </c>
       <c r="R1232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233">
@@ -69686,7 +69686,7 @@
         <v>1</v>
       </c>
       <c r="R1236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237">
@@ -74614,7 +74614,7 @@
         <v>2</v>
       </c>
       <c r="R1324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -77190,7 +77190,7 @@
         <v>1</v>
       </c>
       <c r="R1370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1371">
@@ -79262,7 +79262,7 @@
         <v>1</v>
       </c>
       <c r="R1407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1408">
@@ -85254,7 +85254,7 @@
         <v>2</v>
       </c>
       <c r="R1514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1515">
@@ -86318,7 +86318,7 @@
         <v>0</v>
       </c>
       <c r="R1533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1534">
@@ -87102,7 +87102,7 @@
         <v>0</v>
       </c>
       <c r="R1547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1548">
@@ -89174,7 +89174,7 @@
         <v>2</v>
       </c>
       <c r="R1584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1585">
@@ -90294,7 +90294,7 @@
         <v>0</v>
       </c>
       <c r="R1604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1605">
@@ -90406,7 +90406,7 @@
         <v>2</v>
       </c>
       <c r="R1606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1607">
@@ -91806,7 +91806,7 @@
         <v>0</v>
       </c>
       <c r="R1631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1632">
@@ -95278,7 +95278,7 @@
         <v>0</v>
       </c>
       <c r="R1693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1694">
@@ -97462,7 +97462,7 @@
         <v>1</v>
       </c>
       <c r="R1732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1733">
@@ -98637,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98691,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98745,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98799,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98853,7 +98861,279 @@
       <c r="Q1757" t="n">
         <v>1</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>412.25</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>419.6000061035156</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>412.25</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>414.8999938964844</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>414.8999938964844</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>25223</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>425</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>423.5499877929688</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>423.5499877929688</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>66069</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>418</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>423</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>416</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>417.8500061035156</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>417.8500061035156</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>33869</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>415</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>419.7999877929688</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>417.8500061035156</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>417.8500061035156</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>31015</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>423.8999938964844</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>421.3500061035156</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>421.3500061035156</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>47883</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1762"/>
+  <dimension ref="A1:R1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="R173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="R185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
       <c r="R275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -17886,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="R311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -18950,7 +18950,7 @@
         <v>1</v>
       </c>
       <c r="R330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -21582,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="R377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -24774,7 +24774,7 @@
         <v>1</v>
       </c>
       <c r="R434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -25558,7 +25558,7 @@
         <v>2</v>
       </c>
       <c r="R448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -27966,7 +27966,7 @@
         <v>0</v>
       </c>
       <c r="R491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -29310,7 +29310,7 @@
         <v>0</v>
       </c>
       <c r="R515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -31438,7 +31438,7 @@
         <v>0</v>
       </c>
       <c r="R553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -32894,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="R579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -35246,7 +35246,7 @@
         <v>1</v>
       </c>
       <c r="R621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -43646,7 +43646,7 @@
         <v>1</v>
       </c>
       <c r="R771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="R796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -49022,7 +49022,7 @@
         <v>1</v>
       </c>
       <c r="R867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -52438,7 +52438,7 @@
         <v>1</v>
       </c>
       <c r="R928" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -53614,7 +53614,7 @@
         <v>0</v>
       </c>
       <c r="R949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -55854,7 +55854,7 @@
         <v>0</v>
       </c>
       <c r="R989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990">
@@ -62518,7 +62518,7 @@
         <v>0</v>
       </c>
       <c r="R1108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109">
@@ -63358,7 +63358,7 @@
         <v>2</v>
       </c>
       <c r="R1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124">
@@ -66214,7 +66214,7 @@
         <v>2</v>
       </c>
       <c r="R1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175">
@@ -67334,7 +67334,7 @@
         <v>1</v>
       </c>
       <c r="R1194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195">
@@ -68118,7 +68118,7 @@
         <v>1</v>
       </c>
       <c r="R1208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209">
@@ -69462,7 +69462,7 @@
         <v>0</v>
       </c>
       <c r="R1232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1233">
@@ -69686,7 +69686,7 @@
         <v>1</v>
       </c>
       <c r="R1236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -74614,7 +74614,7 @@
         <v>2</v>
       </c>
       <c r="R1324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325">
@@ -77190,7 +77190,7 @@
         <v>1</v>
       </c>
       <c r="R1370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1371">
@@ -79262,7 +79262,7 @@
         <v>1</v>
       </c>
       <c r="R1407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1408">
@@ -85254,7 +85254,7 @@
         <v>2</v>
       </c>
       <c r="R1514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1515">
@@ -86318,7 +86318,7 @@
         <v>0</v>
       </c>
       <c r="R1533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -87102,7 +87102,7 @@
         <v>0</v>
       </c>
       <c r="R1547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1548">
@@ -89174,7 +89174,7 @@
         <v>2</v>
       </c>
       <c r="R1584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1585">
@@ -90294,7 +90294,7 @@
         <v>0</v>
       </c>
       <c r="R1604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1605">
@@ -90406,7 +90406,7 @@
         <v>2</v>
       </c>
       <c r="R1606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1607">
@@ -91806,7 +91806,7 @@
         <v>0</v>
       </c>
       <c r="R1631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1632">
@@ -95278,7 +95278,7 @@
         <v>0</v>
       </c>
       <c r="R1693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1694">
@@ -97462,7 +97462,7 @@
         <v>1</v>
       </c>
       <c r="R1732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733">
@@ -98741,7 +98741,7 @@
         <v>38</v>
       </c>
       <c r="O1755" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1755" t="n">
         <v>0</v>
@@ -98862,7 +98862,7 @@
         <v>1</v>
       </c>
       <c r="R1757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1758">
@@ -98917,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98971,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99025,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99079,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99133,7 +99141,225 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>421.3500061035156</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>423.2999877929688</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>417.6000061035156</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>417.6000061035156</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>22217</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>419.7000122070312</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>419.7000122070312</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>414.2999877929688</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>414.2999877929688</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>20387</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>412</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>414</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>404</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>405.8999938964844</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>405.8999938964844</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>56739</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>402.1499938964844</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>406</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>396.1000061035156</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>403</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>403</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>48133</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1766"/>
+  <dimension ref="A1:R1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98965,7 +98965,7 @@
         <v>39</v>
       </c>
       <c r="O1759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1759" t="n">
         <v>0</v>
@@ -99197,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99251,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99305,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99359,7 +99365,279 @@
       <c r="Q1766" t="n">
         <v>2</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>401.2999877929688</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>405</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>392.9500122070312</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>398.8500061035156</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>398.8500061035156</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>56957</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>400.3500061035156</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>402.2000122070312</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>393.2999877929688</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>398.3999938964844</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>398.3999938964844</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>32267</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>406.7000122070312</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>403</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>403</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>48225</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>405.0499877929688</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>408</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>403</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>404.8500061035156</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>404.8500061035156</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>10344</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>405.8500061035156</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>406</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>401.5</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>401.5</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>9189</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1771"/>
+  <dimension ref="A1:R1776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99421,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99475,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99529,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99583,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>2</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99637,7 +99645,279 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>401.5</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>405</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>397.1499938964844</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>399.0499877929688</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>399.0499877929688</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>16877</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>401.0499877929688</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>411.8500061035156</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>396.2000122070312</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>405</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>405</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>37976</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>405.5499877929688</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>405.7000122070312</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>397.1499938964844</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>402.3999938964844</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>402.3999938964844</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>52355</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>405.2999877929688</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>405.2999877929688</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>389.7999877929688</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>391.0499877929688</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>391.0499877929688</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>46872</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>393</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>403.0499877929688</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>388.9500122070312</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>401.75</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>401.75</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>61892</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1776"/>
+  <dimension ref="A1:R1781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99701,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99755,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99809,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99863,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99917,7 +99925,279 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>405.3500061035156</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>406</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>395.7000122070312</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>399.7000122070312</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>399.7000122070312</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>19041</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>395.75</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>399.8999938964844</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>391.1000061035156</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>392.6000061035156</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>392.6000061035156</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>29529</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>390.6000061035156</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>399</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>391.6000061035156</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>391.6000061035156</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>44969</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>387.7000122070312</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>395.9500122070312</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>380.2000122070312</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>383.2000122070312</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>383.2000122070312</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>33750</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>385</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>390</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>378.0499877929688</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>388.8500061035156</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>388.8500061035156</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>41723</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1781"/>
+  <dimension ref="A1:R1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99981,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100035,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100089,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100143,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100197,7 +100205,279 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>383.2999877929688</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>388</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>378</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>380</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>380</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>32879</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>390</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>378.1000061035156</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>386.0499877929688</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>386.0499877929688</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>38451</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>384.3999938964844</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>405</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>383.7999877929688</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>400.8500061035156</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>400.8500061035156</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>54620</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>395.3999938964844</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>407.0499877929688</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>395.3999938964844</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>402</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>402</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>27542</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>402</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>407.2999877929688</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>402</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>406.25</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>406.25</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>4733</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1786"/>
+  <dimension ref="A1:R1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100261,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100315,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100369,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100423,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100477,7 +100485,279 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>405.4500122070312</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>405.5</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>390.2000122070312</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>395.7000122070312</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>395.7000122070312</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>38908</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>395.7000122070312</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>400</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>385.6499938964844</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>395.5499877929688</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>395.5499877929688</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>20137</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>396</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>400.2999877929688</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>390.7000122070312</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>397.1000061035156</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>397.1000061035156</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>40703</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>397.25</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>402.75</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>390.1000061035156</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>392.5499877929688</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>392.5499877929688</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>29793</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>395.5499877929688</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>395.5499877929688</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>386</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>387.25</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>387.25</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>20231</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1791"/>
+  <dimension ref="A1:R1795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100253,7 +100253,7 @@
         <v>44</v>
       </c>
       <c r="O1782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1782" t="n">
         <v>0</v>
@@ -100541,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100595,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100649,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100703,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100757,7 +100765,225 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>389.2000122070312</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>389.2000122070312</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>381.4500122070312</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>383.4500122070312</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>383.4500122070312</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>15140</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>384.3999938964844</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>385.3500061035156</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>375.7999877929688</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>375.7999877929688</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>22503</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>377</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>377</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>364</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>367.0499877929688</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>367.0499877929688</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>35637</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>368.8999938964844</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>384.0499877929688</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>383.25</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>383.25</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1795"/>
+  <dimension ref="A1:R1799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100477,7 +100477,7 @@
         <v>44</v>
       </c>
       <c r="O1786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1786" t="n">
         <v>0</v>
@@ -100821,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100875,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>1</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100929,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100983,7 +100989,225 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>385.25</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>373.1499938964844</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>381.1499938964844</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>381.1499938964844</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>31718</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>381</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>385.4500122070312</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>377</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>380</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>380</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>87023</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>385</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>375.75</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>44515</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>382.2000122070312</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>377.5499877929688</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>379.8999938964844</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>379.8999938964844</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>17088</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1799"/>
+  <dimension ref="A1:R1804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100925,7 +100925,7 @@
         <v>46</v>
       </c>
       <c r="O1794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1794" t="n">
         <v>0</v>
@@ -101045,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101099,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>2</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101153,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101207,7 +101213,279 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>379.8999938964844</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>386.6499938964844</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>377.0499877929688</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>378.3500061035156</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>378.3500061035156</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>28201</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>378.3500061035156</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>382.75</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>376</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>378.8999938964844</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>378.8999938964844</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>13359</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>378</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>380.7999877929688</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>373</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>379.2000122070312</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>379.2000122070312</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>42419</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>379.2000122070312</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>379.9500122070312</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>375.6000061035156</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>378.3500061035156</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>378.3500061035156</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>20777</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>375</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>382.8999938964844</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>53668</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1804"/>
+  <dimension ref="A1:R1809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101269,7 +101269,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101323,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101377,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101431,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101485,7 +101493,279 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>372.2999877929688</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>373.7999877929688</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>373.7999877929688</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>37219</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>376</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>379.9500122070312</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>373.25</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>377.7000122070312</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>377.7000122070312</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>67002</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>382.3500061035156</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>383.8999938964844</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>375.3500061035156</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>379.4500122070312</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>379.4500122070312</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>42414</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>382</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>384.3999938964844</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>381.2999877929688</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>381.2999877929688</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>32299</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>381.2999877929688</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>388.9500122070312</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>383.4500122070312</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>383.4500122070312</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>40464</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1809"/>
+  <dimension ref="A1:R1819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101549,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>1</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101603,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101657,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101711,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101765,7 +101773,529 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>389</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>395.2000122070312</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>385.5499877929688</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>392.3999938964844</v>
+      </c>
+      <c r="F1810" t="inlineStr"/>
+      <c r="G1810" t="n">
+        <v>41557</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>396</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>396</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>390</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="F1811" t="inlineStr"/>
+      <c r="G1811" t="n">
+        <v>23072</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>391.7999877929688</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>386.75</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>388.1000061035156</v>
+      </c>
+      <c r="F1812" t="inlineStr"/>
+      <c r="G1812" t="n">
+        <v>17291</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>388</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>388</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>379.6000061035156</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>380.5499877929688</v>
+      </c>
+      <c r="F1813" t="inlineStr"/>
+      <c r="G1813" t="n">
+        <v>30839</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>372</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="F1814" t="inlineStr"/>
+      <c r="G1814" t="n">
+        <v>27985</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>375.2999877929688</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>377</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>373.3999938964844</v>
+      </c>
+      <c r="F1815" t="inlineStr"/>
+      <c r="G1815" t="n">
+        <v>23138</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>376.7999877929688</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>376.7999877929688</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>374.9500122070312</v>
+      </c>
+      <c r="F1816" t="inlineStr"/>
+      <c r="G1816" t="n">
+        <v>22721</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>379.6000061035156</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>379.6000061035156</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>372.3999938964844</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>374.9500122070312</v>
+      </c>
+      <c r="F1817" t="inlineStr"/>
+      <c r="G1817" t="n">
+        <v>12901</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>374.0499877929688</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>375.0499877929688</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>367</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="F1818" t="inlineStr"/>
+      <c r="G1818" t="n">
+        <v>43294</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>374</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>378</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>364.3500061035156</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>367</v>
+      </c>
+      <c r="F1819" t="inlineStr"/>
+      <c r="G1819" t="n">
+        <v>323738</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1819"/>
+  <dimension ref="A1:R1823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101827,7 +101827,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101871,7 +101873,7 @@
         <v>50</v>
       </c>
       <c r="O1811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1811" t="n">
         <v>0</v>
@@ -101879,7 +101881,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101931,7 +101935,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101983,7 +101989,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102035,7 +102043,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102087,7 +102097,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102139,7 +102151,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102191,7 +102205,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102243,7 +102259,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102295,7 +102313,217 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>372.25</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>363</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>368.8500061035156</v>
+      </c>
+      <c r="F1820" t="inlineStr"/>
+      <c r="G1820" t="n">
+        <v>155489</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>376.2000122070312</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>362.0499877929688</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>370.8999938964844</v>
+      </c>
+      <c r="F1821" t="inlineStr"/>
+      <c r="G1821" t="n">
+        <v>144382</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>376.3500061035156</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>376.3500061035156</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>365.5499877929688</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>370.0499877929688</v>
+      </c>
+      <c r="F1822" t="inlineStr"/>
+      <c r="G1822" t="n">
+        <v>19871</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>366</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>373.9500122070312</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>366</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>369.6000061035156</v>
+      </c>
+      <c r="F1823" t="inlineStr"/>
+      <c r="G1823" t="n">
+        <v>7759</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1823"/>
+  <dimension ref="A1:R1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102367,7 +102367,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102419,7 +102421,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102471,7 +102475,9 @@
       <c r="Q1822" t="n">
         <v>2</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102523,7 +102529,269 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>372</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>384.9500122070312</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>361</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>362.1499938964844</v>
+      </c>
+      <c r="F1824" t="inlineStr"/>
+      <c r="G1824" t="n">
+        <v>33708</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>362</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>366.3500061035156</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>357.9500122070312</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>360.8999938964844</v>
+      </c>
+      <c r="F1825" t="inlineStr"/>
+      <c r="G1825" t="n">
+        <v>24468</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>362.4500122070312</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>362</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>365.7999877929688</v>
+      </c>
+      <c r="F1826" t="inlineStr"/>
+      <c r="G1826" t="n">
+        <v>13597</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>367.7999877929688</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>373.0499877929688</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>363.1499938964844</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>367.9500122070312</v>
+      </c>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="n">
+        <v>32820</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>367.9500122070312</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>373.9500122070312</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>366.2999877929688</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>369.1499938964844</v>
+      </c>
+      <c r="F1828" t="inlineStr"/>
+      <c r="G1828" t="n">
+        <v>17126</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1828"/>
+  <dimension ref="A1:R1833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102583,7 +102583,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102635,7 +102637,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102687,7 +102691,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102739,7 +102745,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102791,7 +102799,269 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>369.1499938964844</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>373.4500122070312</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>349.75</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>354.4500122070312</v>
+      </c>
+      <c r="F1829" t="inlineStr"/>
+      <c r="G1829" t="n">
+        <v>49000</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>356.0499877929688</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="n">
+        <v>51620</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>354</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>354.9500122070312</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>347.5499877929688</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>351.1499938964844</v>
+      </c>
+      <c r="F1831" t="inlineStr"/>
+      <c r="G1831" t="n">
+        <v>23959</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>355</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>355</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>345</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="n">
+        <v>22820</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>340.1000061035156</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>349.7999877929688</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>340.1000061035156</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>343.2000122070312</v>
+      </c>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="n">
+        <v>17151</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1833"/>
+  <dimension ref="A1:R1838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102575,7 +102575,7 @@
         <v>1</v>
       </c>
       <c r="O1824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1824" t="n">
         <v>0</v>
@@ -102853,7 +102853,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102905,7 +102907,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -102957,7 +102961,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -103009,7 +103015,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -103061,7 +103069,269 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>347.6499938964844</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>331.4500122070312</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="n">
+        <v>38828</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>332.7000122070312</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>326.2999877929688</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>330.9500122070312</v>
+      </c>
+      <c r="F1835" t="inlineStr"/>
+      <c r="G1835" t="n">
+        <v>61313</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>333.8999938964844</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>337.2999877929688</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>332</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>332.6000061035156</v>
+      </c>
+      <c r="F1836" t="inlineStr"/>
+      <c r="G1836" t="n">
+        <v>33451</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>335</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>341.7999877929688</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>333</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="F1837" t="inlineStr"/>
+      <c r="G1837" t="n">
+        <v>60357</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>337.6499938964844</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>333.7999877929688</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>335.6499938964844</v>
+      </c>
+      <c r="F1838" t="inlineStr"/>
+      <c r="G1838" t="n">
+        <v>38918</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1838"/>
+  <dimension ref="A1:R1843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103123,7 +103123,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103175,7 +103177,9 @@
       <c r="Q1835" t="n">
         <v>2</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
@@ -103227,7 +103231,9 @@
       <c r="Q1836" t="n">
         <v>0</v>
       </c>
-      <c r="R1836" t="inlineStr"/>
+      <c r="R1836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
@@ -103279,7 +103285,9 @@
       <c r="Q1837" t="n">
         <v>0</v>
       </c>
-      <c r="R1837" t="inlineStr"/>
+      <c r="R1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -103331,7 +103339,269 @@
       <c r="Q1838" t="n">
         <v>0</v>
       </c>
-      <c r="R1838" t="inlineStr"/>
+      <c r="R1838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>335.6499938964844</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>338.0499877929688</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>330.7999877929688</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>334.1000061035156</v>
+      </c>
+      <c r="F1839" t="inlineStr"/>
+      <c r="G1839" t="n">
+        <v>21629</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>334.3999938964844</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>336</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>328.2000122070312</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>330.3999938964844</v>
+      </c>
+      <c r="F1840" t="inlineStr"/>
+      <c r="G1840" t="n">
+        <v>22820</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>329.6000061035156</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>334.8999938964844</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>325.2999877929688</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="F1841" t="inlineStr"/>
+      <c r="G1841" t="n">
+        <v>42527</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>337.7000122070312</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>328</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>329.25</v>
+      </c>
+      <c r="F1842" t="inlineStr"/>
+      <c r="G1842" t="n">
+        <v>48757</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>333.3500061035156</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>333.3500061035156</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>322</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>328.8999938964844</v>
+      </c>
+      <c r="F1843" t="inlineStr"/>
+      <c r="G1843" t="n">
+        <v>31342</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1843" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1843" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1843"/>
+  <dimension ref="A1:R1848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103393,7 +103393,9 @@
       <c r="Q1839" t="n">
         <v>0</v>
       </c>
-      <c r="R1839" t="inlineStr"/>
+      <c r="R1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -103445,7 +103447,9 @@
       <c r="Q1840" t="n">
         <v>0</v>
       </c>
-      <c r="R1840" t="inlineStr"/>
+      <c r="R1840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
@@ -103497,7 +103501,9 @@
       <c r="Q1841" t="n">
         <v>0</v>
       </c>
-      <c r="R1841" t="inlineStr"/>
+      <c r="R1841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
@@ -103549,7 +103555,9 @@
       <c r="Q1842" t="n">
         <v>0</v>
       </c>
-      <c r="R1842" t="inlineStr"/>
+      <c r="R1842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
@@ -103601,7 +103609,269 @@
       <c r="Q1843" t="n">
         <v>0</v>
       </c>
-      <c r="R1843" t="inlineStr"/>
+      <c r="R1843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>310.7000122070312</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>313.3999938964844</v>
+      </c>
+      <c r="F1844" t="inlineStr"/>
+      <c r="G1844" t="n">
+        <v>61447</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1844" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1844" t="inlineStr"/>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>318.0499877929688</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>318.0499877929688</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>301.5</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>305.1499938964844</v>
+      </c>
+      <c r="F1845" t="inlineStr"/>
+      <c r="G1845" t="n">
+        <v>39335</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1845" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1845" t="inlineStr"/>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>323.1000061035156</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>345</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>322.1000061035156</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>331.9500122070312</v>
+      </c>
+      <c r="F1846" t="inlineStr"/>
+      <c r="G1846" t="n">
+        <v>346228</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1846" t="inlineStr"/>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>325</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>337</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>330.7999877929688</v>
+      </c>
+      <c r="F1847" t="inlineStr"/>
+      <c r="G1847" t="n">
+        <v>339183</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>340</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>329.3500061035156</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>335.1499938964844</v>
+      </c>
+      <c r="F1848" t="inlineStr"/>
+      <c r="G1848" t="n">
+        <v>120736</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1848" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1848"/>
+  <dimension ref="A1:R1853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103663,7 +103663,9 @@
       <c r="Q1844" t="n">
         <v>0</v>
       </c>
-      <c r="R1844" t="inlineStr"/>
+      <c r="R1844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
@@ -103715,7 +103717,9 @@
       <c r="Q1845" t="n">
         <v>0</v>
       </c>
-      <c r="R1845" t="inlineStr"/>
+      <c r="R1845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1846">
       <c r="A1846" s="2" t="n">
@@ -103767,7 +103771,9 @@
       <c r="Q1846" t="n">
         <v>0</v>
       </c>
-      <c r="R1846" t="inlineStr"/>
+      <c r="R1846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
@@ -103819,7 +103825,9 @@
       <c r="Q1847" t="n">
         <v>0</v>
       </c>
-      <c r="R1847" t="inlineStr"/>
+      <c r="R1847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1848">
       <c r="A1848" s="2" t="n">
@@ -103871,7 +103879,269 @@
       <c r="Q1848" t="n">
         <v>0</v>
       </c>
-      <c r="R1848" t="inlineStr"/>
+      <c r="R1848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>335</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>344.0499877929688</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="F1849" t="inlineStr"/>
+      <c r="G1849" t="n">
+        <v>56695</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1849" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1849" t="inlineStr"/>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>340.7999877929688</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>341.2000122070312</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>332.5499877929688</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>338.9500122070312</v>
+      </c>
+      <c r="F1850" t="inlineStr"/>
+      <c r="G1850" t="n">
+        <v>88656</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1850" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1850" t="inlineStr"/>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>340</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>331.0499877929688</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>333.8999938964844</v>
+      </c>
+      <c r="F1851" t="inlineStr"/>
+      <c r="G1851" t="n">
+        <v>50628</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1851" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1851" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1851" t="inlineStr"/>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>338</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>329.5499877929688</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>345.2999877929688</v>
+      </c>
+      <c r="F1852" t="inlineStr"/>
+      <c r="G1852" t="n">
+        <v>131819</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1852" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1852" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1852" t="inlineStr"/>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>349</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>349</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="F1853" t="inlineStr"/>
+      <c r="G1853" t="n">
+        <v>64904</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1853" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1853" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1853" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SIS.NS.xlsx
+++ b/stock_historical_data/1d/SIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1853"/>
+  <dimension ref="A1:R1858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103709,7 +103709,7 @@
         <v>5</v>
       </c>
       <c r="O1845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1845" t="n">
         <v>0</v>
@@ -103933,7 +103933,9 @@
       <c r="Q1849" t="n">
         <v>0</v>
       </c>
-      <c r="R1849" t="inlineStr"/>
+      <c r="R1849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
@@ -103985,7 +103987,9 @@
       <c r="Q1850" t="n">
         <v>0</v>
       </c>
-      <c r="R1850" t="inlineStr"/>
+      <c r="R1850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1851">
       <c r="A1851" s="2" t="n">
@@ -104037,7 +104041,9 @@
       <c r="Q1851" t="n">
         <v>0</v>
       </c>
-      <c r="R1851" t="inlineStr"/>
+      <c r="R1851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1852">
       <c r="A1852" s="2" t="n">
@@ -104089,7 +104095,9 @@
       <c r="Q1852" t="n">
         <v>0</v>
       </c>
-      <c r="R1852" t="inlineStr"/>
+      <c r="R1852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1853">
       <c r="A1853" s="2" t="n">
@@ -104141,7 +104149,269 @@
       <c r="Q1853" t="n">
         <v>0</v>
       </c>
-      <c r="R1853" t="inlineStr"/>
+      <c r="R1853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>343</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>343</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>336.9500122070312</v>
+      </c>
+      <c r="F1854" t="inlineStr"/>
+      <c r="G1854" t="n">
+        <v>34027</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1854" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1854" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1854" t="inlineStr"/>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>337.7000122070312</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>337.7000122070312</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>323.7999877929688</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>328.2000122070312</v>
+      </c>
+      <c r="F1855" t="inlineStr"/>
+      <c r="G1855" t="n">
+        <v>60166</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1855" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1855" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1855" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1855" t="inlineStr"/>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>325</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>326</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>311.75</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>318.0499877929688</v>
+      </c>
+      <c r="F1856" t="inlineStr"/>
+      <c r="G1856" t="n">
+        <v>68361</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1856" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1856" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1856" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1856" t="inlineStr"/>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>319.75</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>312.4500122070312</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>314.5499877929688</v>
+      </c>
+      <c r="F1857" t="inlineStr"/>
+      <c r="G1857" t="n">
+        <v>39148</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1857" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1857" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1857" t="inlineStr"/>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>315</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>312.2999877929688</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>319.4500122070312</v>
+      </c>
+      <c r="F1858" t="inlineStr"/>
+      <c r="G1858" t="n">
+        <v>48838</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1858" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1858" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1858" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1858" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
